--- a/Multiknapsack/results/fixed_recourse/multicut/M50_N200_T0_a75_reformulation.xlsx
+++ b/Multiknapsack/results/fixed_recourse/multicut/M50_N200_T0_a75_reformulation.xlsx
@@ -51,7 +51,7 @@
     <t>num quad cons</t>
   </si>
   <si>
-    <t>OPTIMAL</t>
+    <t>TIME_LIMIT</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,13 +440,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-2322.6940926685024</v>
+        <v>-636.8209940539369</v>
       </c>
       <c r="C2">
-        <v>0.0</v>
+        <v>6.8750427571620385</v>
       </c>
       <c r="D2">
-        <v>181.722813988</v>
+        <v>3623.924046705</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -466,13 +466,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2337.839202081727</v>
+        <v>-642.701897941751</v>
       </c>
       <c r="C3">
-        <v>1.9451609438387176e-14</v>
+        <v>9.5353207677372</v>
       </c>
       <c r="D3">
-        <v>180.647319135</v>
+        <v>3766.74439455</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -484,214 +484,6 @@
         <v>2550</v>
       </c>
       <c r="H3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>-2333.772812370712</v>
-      </c>
-      <c r="C4">
-        <v>0.0</v>
-      </c>
-      <c r="D4">
-        <v>177.889020839</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>5250</v>
-      </c>
-      <c r="G4">
-        <v>2550</v>
-      </c>
-      <c r="H4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>-2353.0765632889825</v>
-      </c>
-      <c r="C5">
-        <v>0.0</v>
-      </c>
-      <c r="D5">
-        <v>181.48632397</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>5250</v>
-      </c>
-      <c r="G5">
-        <v>2550</v>
-      </c>
-      <c r="H5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-2313.7965928692865</v>
-      </c>
-      <c r="C6">
-        <v>5.896119204530281e-14</v>
-      </c>
-      <c r="D6">
-        <v>180.311769687</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>5250</v>
-      </c>
-      <c r="G6">
-        <v>2550</v>
-      </c>
-      <c r="H6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>-2300.0665087871494</v>
-      </c>
-      <c r="C7">
-        <v>0.0</v>
-      </c>
-      <c r="D7">
-        <v>179.487061154</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>5250</v>
-      </c>
-      <c r="G7">
-        <v>2550</v>
-      </c>
-      <c r="H7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>-2319.8782231720074</v>
-      </c>
-      <c r="C8">
-        <v>0.0</v>
-      </c>
-      <c r="D8">
-        <v>177.446833332</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>5250</v>
-      </c>
-      <c r="G8">
-        <v>2550</v>
-      </c>
-      <c r="H8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>-2307.6882640570348</v>
-      </c>
-      <c r="C9">
-        <v>5.911725920297941e-14</v>
-      </c>
-      <c r="D9">
-        <v>178.088715444</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>5250</v>
-      </c>
-      <c r="G9">
-        <v>2550</v>
-      </c>
-      <c r="H9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>-2321.713305378598</v>
-      </c>
-      <c r="C10">
-        <v>0.0</v>
-      </c>
-      <c r="D10">
-        <v>178.22211616</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>5250</v>
-      </c>
-      <c r="G10">
-        <v>2550</v>
-      </c>
-      <c r="H10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>-2350.78278319216</v>
-      </c>
-      <c r="C11">
-        <v>1.934450746099719e-14</v>
-      </c>
-      <c r="D11">
-        <v>177.517202932</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>5250</v>
-      </c>
-      <c r="G11">
-        <v>2550</v>
-      </c>
-      <c r="H11">
         <v>50</v>
       </c>
     </row>
